--- a/gp17_data.xlsx
+++ b/gp17_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\fichiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Main_docs\Education\Uni_UCA\N2\S4\7_Financial_Math\DM\py_dm\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0A0AEB-E711-4E3A-B24A-6414EC130277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26010" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="2970" windowWidth="23235" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projet17" sheetId="2" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,15 +361,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil23"/>
   <dimension ref="B1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -440,13 +441,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
